--- a/biology/Médecine/Muscle_scalène/Muscle_scalène.xlsx
+++ b/biology/Médecine/Muscle_scalène/Muscle_scalène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne</t>
+          <t>Muscle_scalène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles scalènes (musculus scalenus en latin) sont trois muscles antérieurs et latéraux du cou :
 Le muscle scalène antérieur
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne</t>
+          <t>Muscle_scalène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont :
 élévateurs des 2 premières côtes en prenant appui sur le cou, ils sont donc inspirateurs ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne</t>
+          <t>Muscle_scalène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scalènes sont disposés en deux-plans : l'antérieur en avant, les deux autres en arrière. Ils délimitent ainsi avec les côtes
 le triangle interscalénique par où passent les branches du plexus brachial et l'artère sous-clavière.
